--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-09.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,7 +700,7 @@
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
@@ -715,7 +715,7 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.24</v>
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -814,10 +814,10 @@
         <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -829,25 +829,25 @@
         <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
         <v>1.72</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -859,10 +859,10 @@
         <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
         <v>100</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>32</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
@@ -949,7 +949,7 @@
         <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>980</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
@@ -970,7 +970,7 @@
         <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -988,7 +988,7 @@
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,13 +1081,13 @@
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.94</v>
+        <v>2.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
         <v>1.89</v>
@@ -1207,52 +1207,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
         <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
         <v>1.84</v>
@@ -1261,58 +1261,58 @@
         <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1483,16 +1483,16 @@
         <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
         <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W8" t="n">
         <v>1.33</v>
@@ -1618,16 +1618,16 @@
         <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,13 +1639,13 @@
         <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1780,13 +1780,13 @@
         <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2050,7 +2050,7 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2290,109 +2290,109 @@
         <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H14" t="n">
         <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
         <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,10 +2452,10 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,16 +2581,16 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
@@ -2605,16 +2605,16 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
         <v>980</v>
@@ -2722,10 +2722,10 @@
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2830,19 +2830,19 @@
         <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,10 +2857,10 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.09</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
         <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,13 +2986,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="O19" t="n">
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
         <v>1.86</v>
@@ -3010,10 +3010,10 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3100,22 +3100,22 @@
         <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I20" t="n">
         <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3136,7 +3136,7 @@
         <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
         <v>1.57</v>
@@ -3154,7 +3154,7 @@
         <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>14.5</v>
@@ -3175,10 +3175,10 @@
         <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -3193,13 +3193,13 @@
         <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
         <v>3.8</v>
@@ -3247,97 +3247,97 @@
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
         <v>2.76</v>
@@ -3382,97 +3382,97 @@
         <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>5.2</v>
@@ -3514,100 +3514,100 @@
         <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q23" t="n">
         <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>7.2</v>
@@ -3655,16 +3655,16 @@
         <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
         <v>2.42</v>
@@ -3673,76 +3673,76 @@
         <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>1.67</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="I25" t="n">
         <v>12</v>
@@ -3790,94 +3790,94 @@
         <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
         <v>1.79</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H29" t="n">
         <v>2.54</v>
       </c>
       <c r="I29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>3.95</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H30" t="n">
         <v>7.6</v>
@@ -4459,10 +4459,10 @@
         <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,22 +4477,22 @@
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
         <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
         <v>2.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
         <v>150</v>
@@ -4720,7 +4720,7 @@
         <v>2.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>4.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
         <v>5.7</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="G33" t="n">
         <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4993,16 +4993,16 @@
         <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="I34" t="n">
         <v>2.92</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>5.1</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I35" t="n">
         <v>1.84</v>
@@ -5137,7 +5137,7 @@
         <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5155,7 +5155,7 @@
         <v>1.76</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.29</v>
@@ -5173,7 +5173,7 @@
         <v>2.18</v>
       </c>
       <c r="W35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5260,16 +5260,16 @@
         <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
@@ -5401,10 +5401,10 @@
         <v>2.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
         <v>3.9</v>
@@ -5425,7 +5425,7 @@
         <v>2.28</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H38" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I38" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J38" t="n">
         <v>3.8</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G40" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H40" t="n">
         <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>2.66</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H41" t="n">
         <v>2.12</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q41" t="n">
         <v>1.74</v>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I42" t="n">
         <v>1.65</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>3.15</v>
       </c>
       <c r="G43" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>2.12</v>
@@ -6214,7 +6214,7 @@
         <v>2.36</v>
       </c>
       <c r="J43" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K43" t="n">
         <v>4.5</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="G44" t="n">
         <v>980</v>
       </c>
       <c r="H44" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="I44" t="n">
-        <v>980</v>
+        <v>1.33</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>5.3</v>
       </c>
       <c r="K44" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G45" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H45" t="n">
         <v>5.2</v>
@@ -6484,7 +6484,7 @@
         <v>6.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K45" t="n">
         <v>4.3</v>
@@ -6505,7 +6505,7 @@
         <v>1.87</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -7150,10 +7150,10 @@
         <v>2.02</v>
       </c>
       <c r="G50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
         <v>4.2</v>
@@ -7180,7 +7180,7 @@
         <v>2.28</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>5.5</v>
       </c>
       <c r="H51" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I51" t="n">
         <v>2.04</v>
@@ -7297,7 +7297,7 @@
         <v>3.55</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>1.9</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G52" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J52" t="n">
         <v>4.1</v>
       </c>
       <c r="K52" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G54" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H54" t="n">
         <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J54" t="n">
         <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G55" t="n">
         <v>1.51</v>
@@ -7831,10 +7831,10 @@
         <v>2.96</v>
       </c>
       <c r="I55" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J55" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K55" t="n">
         <v>950</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G56" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I56" t="n">
         <v>2.88</v>
@@ -7972,7 +7972,7 @@
         <v>3.2</v>
       </c>
       <c r="K56" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>2.28</v>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H57" t="n">
         <v>3.45</v>
@@ -8185,7 +8185,7 @@
         <v>30</v>
       </c>
       <c r="AK57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL57" t="n">
         <v>36</v>
@@ -8197,7 +8197,7 @@
         <v>18</v>
       </c>
       <c r="AO57" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G58" t="n">
         <v>2.42</v>
@@ -8236,7 +8236,7 @@
         <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J58" t="n">
         <v>3.6</v>
@@ -8251,7 +8251,7 @@
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O58" t="n">
         <v>1.26</v>
@@ -8272,7 +8272,7 @@
         <v>1.64</v>
       </c>
       <c r="U58" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>12.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
         <v>14</v>
@@ -8395,7 +8395,7 @@
         <v>1.83</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R59" t="n">
         <v>1.31</v>
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U59" t="n">
         <v>2.06</v>
@@ -8443,7 +8443,7 @@
         <v>14</v>
       </c>
       <c r="AG59" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH59" t="n">
         <v>18.5</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I60" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J60" t="n">
         <v>3.55</v>
@@ -8530,7 +8530,7 @@
         <v>2.14</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R60" t="n">
         <v>1.44</v>
@@ -8542,7 +8542,7 @@
         <v>1.69</v>
       </c>
       <c r="U60" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z60" t="n">
         <v>17</v>
@@ -8572,10 +8572,10 @@
         <v>12</v>
       </c>
       <c r="AE60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
@@ -8584,7 +8584,7 @@
         <v>15.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ60" t="n">
         <v>60</v>
@@ -8596,13 +8596,13 @@
         <v>42</v>
       </c>
       <c r="AM60" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AN60" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO60" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H61" t="n">
         <v>2.48</v>
@@ -8659,13 +8659,13 @@
         <v>3.35</v>
       </c>
       <c r="O61" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R61" t="n">
         <v>1.3</v>
@@ -8689,22 +8689,22 @@
         <v>12</v>
       </c>
       <c r="Y61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z61" t="n">
         <v>16</v>
       </c>
       <c r="AA61" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB61" t="n">
         <v>11.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE61" t="n">
         <v>32</v>
@@ -8716,7 +8716,7 @@
         <v>15.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
         <v>48</v>
@@ -8776,7 +8776,7 @@
         <v>2.68</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J62" t="n">
         <v>3.1</v>
@@ -8836,7 +8836,7 @@
         <v>9.4</v>
       </c>
       <c r="AC62" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD62" t="n">
         <v>13.5</v>
@@ -8845,7 +8845,7 @@
         <v>42</v>
       </c>
       <c r="AF62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG62" t="n">
         <v>15.5</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G63" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H63" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>3.1</v>
@@ -8923,19 +8923,19 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P63" t="n">
         <v>1.59</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R63" t="n">
         <v>1.21</v>
@@ -8971,7 +8971,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD63" t="n">
         <v>14.5</v>
@@ -9310,7 +9310,7 @@
         <v>1.23</v>
       </c>
       <c r="G66" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>3.85</v>
@@ -9319,10 +9319,10 @@
         <v>1000</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="K66" t="n">
-        <v>950</v>
+        <v>8.4</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G67" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H67" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I67" t="n">
         <v>5.8</v>
@@ -9457,7 +9457,7 @@
         <v>3.5</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9577,52 +9577,52 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G68" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H68" t="n">
         <v>4.7</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J68" t="n">
         <v>3.7</v>
       </c>
       <c r="K68" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
         <v>3.55</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P68" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R68" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S68" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T68" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,22 +9631,22 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA68" t="n">
         <v>140</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD68" t="n">
         <v>19.5</v>
@@ -9667,7 +9667,7 @@
         <v>75</v>
       </c>
       <c r="AJ68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK68" t="n">
         <v>21</v>
@@ -9679,7 +9679,7 @@
         <v>140</v>
       </c>
       <c r="AN68" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO68" t="n">
         <v>85</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="G70" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="H70" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I70" t="n">
         <v>1000</v>
       </c>
       <c r="J70" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G71" t="n">
         <v>1.65</v>
@@ -9997,7 +9997,7 @@
         <v>2.54</v>
       </c>
       <c r="K71" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10093,7 +10093,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,31 +10108,31 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,121 +10243,121 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q73" t="n">
         <v>1.01</v>
       </c>
-      <c r="M73" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P73" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.6</v>
-      </c>
       <c r="R73" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -10378,31 +10378,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.82</v>
+        <v>5.8</v>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="H74" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="I74" t="n">
-        <v>2.88</v>
+        <v>1.81</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K74" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10528,16 +10528,16 @@
         <v>3.8</v>
       </c>
       <c r="H75" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="I75" t="n">
         <v>2.72</v>
       </c>
       <c r="J75" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K75" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10795,16 +10795,16 @@
         <v>1.41</v>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H77" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="I77" t="n">
         <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
         <v>5.3</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10913,36 +10913,36 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="G78" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="I78" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="J78" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="K78" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11048,36 +11048,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="G79" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="H79" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="I79" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="J79" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K79" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,31 +11188,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="H80" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="J80" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K80" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11323,31 +11323,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Kfum Oslo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="G81" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="H81" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="I81" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J81" t="n">
-        <v>1.89</v>
+        <v>3.75</v>
       </c>
       <c r="K81" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.52</v>
+        <v>1.82</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11458,31 +11458,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kfum Oslo</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="G82" t="n">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
       <c r="H82" t="n">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="I82" t="n">
-        <v>6.6</v>
+        <v>25</v>
       </c>
       <c r="J82" t="n">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.82</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11593,31 +11593,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.16</v>
+        <v>2.78</v>
       </c>
       <c r="G83" t="n">
-        <v>1.19</v>
+        <v>2.98</v>
       </c>
       <c r="H83" t="n">
-        <v>14.5</v>
+        <v>2.54</v>
       </c>
       <c r="I83" t="n">
-        <v>25</v>
+        <v>2.62</v>
       </c>
       <c r="J83" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="K83" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11723,66 +11723,66 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="G84" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="J84" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K84" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P84" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -11791,58 +11791,58 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85">
@@ -11863,61 +11863,61 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="I85" t="n">
-        <v>3.15</v>
+        <v>2.64</v>
       </c>
       <c r="J85" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K85" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="P85" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.36</v>
+        <v>1.75</v>
       </c>
       <c r="R85" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S85" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="T85" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="U85" t="n">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -11926,58 +11926,58 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y85" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z85" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA85" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AB85" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD85" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE85" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AF85" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG85" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH85" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ85" t="n">
         <v>46</v>
       </c>
       <c r="AK85" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL85" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM85" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN85" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AO85" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -11998,31 +11998,31 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="G86" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="H86" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="I86" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="J86" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12031,7 +12031,7 @@
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O86" t="n">
         <v>1.26</v>
@@ -12040,19 +12040,19 @@
         <v>2.2</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R86" t="n">
         <v>1.48</v>
       </c>
       <c r="S86" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T86" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U86" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12061,64 +12061,64 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE86" t="n">
         <v>23</v>
       </c>
-      <c r="Y86" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE86" t="n">
+      <c r="AF86" t="n">
         <v>28</v>
       </c>
-      <c r="AF86" t="n">
-        <v>22</v>
-      </c>
       <c r="AG86" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH86" t="n">
         <v>16.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ86" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK86" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL86" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM86" t="n">
         <v>75</v>
       </c>
       <c r="AN86" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AO86" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,28 +12133,28 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="G87" t="n">
-        <v>3.65</v>
+        <v>7.2</v>
       </c>
       <c r="H87" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="I87" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="J87" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K87" t="n">
         <v>3.9</v>
@@ -12163,31 +12163,31 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="R87" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,64 +12196,64 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN87" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12263,36 +12263,36 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
       <c r="G88" t="n">
-        <v>9.800000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="H88" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="I88" t="n">
-        <v>1.99</v>
+        <v>3.15</v>
       </c>
       <c r="J88" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12388,7 +12388,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,31 +12403,31 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12538,12 +12538,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -12673,12 +12673,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -12808,12 +12808,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -12943,12 +12943,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -13099,7 +13099,7 @@
         <v>2.18</v>
       </c>
       <c r="J94" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K94" t="n">
         <v>7</v>
@@ -13120,7 +13120,7 @@
         <v>1.92</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G95" t="n">
         <v>1.58</v>
@@ -13255,7 +13255,7 @@
         <v>2.62</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R95" t="n">
         <v>1.65</v>
@@ -13267,7 +13267,7 @@
         <v>1.71</v>
       </c>
       <c r="U95" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -13291,7 +13291,7 @@
         <v>12</v>
       </c>
       <c r="AC95" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD95" t="n">
         <v>25</v>
@@ -13303,10 +13303,10 @@
         <v>11.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI95" t="n">
         <v>70</v>
@@ -13315,7 +13315,7 @@
         <v>15.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL95" t="n">
         <v>29</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y96" t="n">
         <v>24</v>
@@ -13429,7 +13429,7 @@
         <v>10.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE96" t="n">
         <v>38</v>
@@ -13468,7 +13468,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13478,36 +13478,36 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13603,7 +13603,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13618,61 +13618,61 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G98" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="I98" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J98" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K98" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="R98" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -13681,64 +13681,64 @@
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA98" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE98" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF98" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH98" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AI98" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ98" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK98" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL98" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM98" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN98" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AO98" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13753,61 +13753,61 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="G99" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I99" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J99" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K99" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P99" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,64 +13816,64 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -13888,31 +13888,31 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="H100" t="n">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="I100" t="n">
-        <v>3.4</v>
+        <v>1.54</v>
       </c>
       <c r="J100" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K100" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14023,31 +14023,31 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6.6</v>
+        <v>1.96</v>
       </c>
       <c r="G101" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>1.54</v>
+        <v>5.4</v>
       </c>
       <c r="J101" t="n">
-        <v>3.5</v>
+        <v>2.34</v>
       </c>
       <c r="K101" t="n">
-        <v>9.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14143,7 +14143,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14153,36 +14153,36 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="H102" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="I102" t="n">
-        <v>4.9</v>
+        <v>2.84</v>
       </c>
       <c r="J102" t="n">
-        <v>2.26</v>
+        <v>3.35</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q102" t="n">
         <v>1.7</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1.86</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14278,7 +14278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14288,36 +14288,36 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="G103" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="I103" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="J103" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K103" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,31 +14428,31 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Vinotinto Ecuador</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="H104" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="K104" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14548,7 +14548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,31 +14563,31 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Vinotinto Ecuador</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G105" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="I105" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="J105" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="K105" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,31 +14698,31 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.38</v>
+        <v>5.8</v>
       </c>
       <c r="G106" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="H106" t="n">
-        <v>2.36</v>
+        <v>1.61</v>
       </c>
       <c r="I106" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="J106" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="K106" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14828,36 +14828,36 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="H107" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="I107" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="J107" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="K107" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14872,10 +14872,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.92</v>
+        <v>1.41</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14953,7 +14953,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14963,132 +14963,132 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="G108" t="n">
-        <v>32</v>
+        <v>5.6</v>
       </c>
       <c r="H108" t="n">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="I108" t="n">
-        <v>1.49</v>
+        <v>1.92</v>
       </c>
       <c r="J108" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P108" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG108" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH108" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15103,127 +15103,127 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="G109" t="n">
-        <v>5.6</v>
+        <v>1.79</v>
       </c>
       <c r="H109" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="I109" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="J109" t="n">
-        <v>3.6</v>
+        <v>2.26</v>
       </c>
       <c r="K109" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L109" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.96</v>
+        <v>1.49</v>
       </c>
       <c r="R109" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF109" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH109" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI109" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK109" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM109" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN109" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO109" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15238,61 +15238,61 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="G110" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="H110" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="I110" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J110" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="K110" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P110" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
@@ -15301,64 +15301,64 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z110" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB110" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH110" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI110" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL110" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM110" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN110" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AO110" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15373,61 +15373,61 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="G111" t="n">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="I111" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J111" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="K111" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="Q111" t="n">
         <v>1.6</v>
       </c>
       <c r="R111" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
@@ -15436,64 +15436,64 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB111" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD111" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG111" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH111" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI111" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ111" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK111" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL111" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM111" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN111" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AO111" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15503,126 +15503,126 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="G112" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="H112" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="I112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S112" t="n">
         <v>4</v>
       </c>
-      <c r="J112" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K112" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15643,97 +15643,97 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="G113" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="H113" t="n">
-        <v>2.38</v>
+        <v>4.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="J113" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="K113" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L113" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N113" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="O113" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P113" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R113" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="S113" t="n">
         <v>4</v>
       </c>
       <c r="T113" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="W113" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X113" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y113" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z113" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA113" t="n">
         <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC113" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD113" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE113" t="n">
         <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG113" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
         <v>1000</v>
@@ -15751,7 +15751,7 @@
         <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN113" t="n">
         <v>1000</v>
@@ -15778,67 +15778,67 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="G114" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="H114" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I114" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J114" t="n">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="K114" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N114" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="O114" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P114" t="n">
         <v>1.25</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="R114" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S114" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T114" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U114" t="n">
         <v>1.01</v>
       </c>
       <c r="V114" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="W114" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X114" t="n">
         <v>1000</v>
@@ -15898,7 +15898,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -15913,127 +15913,127 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="G115" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="H115" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="I115" t="n">
         <v>8.4</v>
       </c>
       <c r="J115" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="K115" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L115" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="R115" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16048,49 +16048,49 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>FC Nordsjaelland</t>
         </is>
       </c>
       <c r="F116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q116" t="n">
         <v>1.58</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H116" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I116" t="n">
-        <v>8</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>1.73</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -16168,7 +16168,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16183,31 +16183,31 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FC Nordsjaelland</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.96</v>
+        <v>5.9</v>
       </c>
       <c r="G117" t="n">
-        <v>2.12</v>
+        <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="I117" t="n">
-        <v>3.9</v>
+        <v>1.58</v>
       </c>
       <c r="J117" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="K117" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16222,10 +16222,10 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16303,7 +16303,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -16318,127 +16318,127 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Paok</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5.7</v>
+        <v>2.42</v>
       </c>
       <c r="G118" t="n">
-        <v>7</v>
+        <v>2.66</v>
       </c>
       <c r="H118" t="n">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>1.59</v>
+        <v>3.35</v>
       </c>
       <c r="J118" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K118" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P118" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z118" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA118" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB118" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE118" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG118" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI118" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK118" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL118" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -16448,132 +16448,132 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Paok</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="G119" t="n">
-        <v>2.82</v>
+        <v>7.4</v>
       </c>
       <c r="H119" t="n">
-        <v>2.96</v>
+        <v>1.67</v>
       </c>
       <c r="I119" t="n">
-        <v>3.95</v>
+        <v>2.04</v>
       </c>
       <c r="J119" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K119" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="R119" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -16583,36 +16583,36 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="G120" t="n">
-        <v>7.8</v>
+        <v>2.68</v>
       </c>
       <c r="H120" t="n">
-        <v>1.66</v>
+        <v>3.55</v>
       </c>
       <c r="I120" t="n">
-        <v>2.04</v>
+        <v>4.4</v>
       </c>
       <c r="J120" t="n">
-        <v>3.8</v>
+        <v>2.54</v>
       </c>
       <c r="K120" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16627,10 +16627,10 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -16708,7 +16708,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -16723,31 +16723,31 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -16762,10 +16762,10 @@
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -16858,12 +16858,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -16978,7 +16978,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16988,66 +16988,66 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P123" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
@@ -17056,64 +17056,64 @@
         <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z123" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB123" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD123" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG123" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH123" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI123" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK123" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL123" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM123" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN123" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO123" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17128,31 +17128,31 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4.3</v>
+        <v>1.39</v>
       </c>
       <c r="G124" t="n">
-        <v>4.6</v>
+        <v>1.41</v>
       </c>
       <c r="H124" t="n">
-        <v>1.87</v>
+        <v>8.6</v>
       </c>
       <c r="I124" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="J124" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="K124" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -17161,28 +17161,28 @@
         <v>1.04</v>
       </c>
       <c r="N124" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O124" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P124" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R124" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="S124" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="T124" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="U124" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -17191,64 +17191,64 @@
         <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y124" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC124" t="n">
         <v>13</v>
       </c>
-      <c r="Z124" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD124" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AE124" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="AF124" t="n">
-        <v>38</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG124" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH124" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI124" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>95</v>
+        <v>11.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AL124" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM124" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AN124" t="n">
-        <v>44</v>
+        <v>5.9</v>
       </c>
       <c r="AO124" t="n">
-        <v>9.6</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -17258,66 +17258,66 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
         <v>1.25</v>
       </c>
-      <c r="P125" t="n">
-        <v>2.28</v>
-      </c>
       <c r="Q125" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R125" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V125" t="n">
         <v>0</v>
@@ -17326,64 +17326,64 @@
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z125" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AA125" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AB125" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC125" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD125" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE125" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF125" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG125" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH125" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI125" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ125" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK125" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AL125" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM125" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN125" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AO125" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -17393,36 +17393,36 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -17437,10 +17437,10 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>1.25</v>
+        <v>2.54</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -17533,31 +17533,31 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="G127" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="H127" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I127" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="J127" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K127" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -17572,10 +17572,10 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17653,7 +17653,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,31 +17668,31 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.44</v>
+        <v>1.4</v>
       </c>
       <c r="G128" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="H128" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I128" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J128" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="K128" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -17707,10 +17707,10 @@
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17788,7 +17788,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17803,31 +17803,31 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.38</v>
+        <v>2.48</v>
       </c>
       <c r="G129" t="n">
-        <v>1.64</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="I129" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J129" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="K129" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -17842,10 +17842,10 @@
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17933,36 +17933,36 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G130" t="n">
-        <v>1.44</v>
+        <v>1000</v>
       </c>
       <c r="H130" t="n">
-        <v>9</v>
+        <v>1.04</v>
       </c>
       <c r="I130" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J130" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="K130" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -17977,10 +17977,10 @@
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
@@ -18082,22 +18082,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H131" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I131" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J131" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="K131" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -18112,10 +18112,10 @@
         <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
@@ -18217,22 +18217,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H132" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I132" t="n">
         <v>2.06</v>
       </c>
       <c r="J132" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K132" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -18247,10 +18247,10 @@
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -18352,22 +18352,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G133" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H133" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I133" t="n">
         <v>11.5</v>
       </c>
       <c r="J133" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K133" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -18382,10 +18382,10 @@
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R133" t="n">
         <v>0</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G134" t="n">
         <v>1.35</v>
@@ -18496,88 +18496,88 @@
         <v>12</v>
       </c>
       <c r="I134" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J134" t="n">
         <v>5.6</v>
       </c>
       <c r="K134" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L134" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M134" t="n">
         <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="O134" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P134" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="R134" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S134" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T134" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U134" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V134" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="W134" t="n">
         <v>3.85</v>
       </c>
       <c r="X134" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y134" t="n">
         <v>1000</v>
       </c>
       <c r="Z134" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA134" t="n">
         <v>1000</v>
       </c>
       <c r="AB134" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC134" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD134" t="n">
         <v>1000</v>
       </c>
       <c r="AE134" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF134" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG134" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH134" t="n">
         <v>1000</v>
       </c>
       <c r="AI134" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK134" t="n">
         <v>1000</v>
@@ -18586,10 +18586,10 @@
         <v>1000</v>
       </c>
       <c r="AM134" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN134" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO134" t="n">
         <v>1000</v>
@@ -18760,16 +18760,16 @@
         <v>1.86</v>
       </c>
       <c r="G136" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H136" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I136" t="n">
         <v>6</v>
       </c>
       <c r="J136" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K136" t="n">
         <v>3.6</v>
@@ -19033,16 +19033,16 @@
         <v>2.8</v>
       </c>
       <c r="H138" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I138" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="K138" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -19198,7 +19198,7 @@
         <v>2.06</v>
       </c>
       <c r="R139" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S139" t="n">
         <v>3.5</v>
@@ -19213,7 +19213,7 @@
         <v>1.4</v>
       </c>
       <c r="W139" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X139" t="n">
         <v>1000</v>
@@ -19300,10 +19300,10 @@
         <v>3.45</v>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H140" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I140" t="n">
         <v>2.12</v>
@@ -19327,10 +19327,10 @@
         <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R140" t="n">
         <v>0</v>
@@ -19702,58 +19702,58 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="G143" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I143" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J143" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K143" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L143" t="n">
         <v>1.01</v>
       </c>
       <c r="M143" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N143" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="O143" t="n">
         <v>1.32</v>
       </c>
       <c r="P143" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.39</v>
+        <v>1.89</v>
       </c>
       <c r="R143" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S143" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T143" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U143" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V143" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W143" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X143" t="n">
         <v>1000</v>
@@ -19801,7 +19801,7 @@
         <v>1000</v>
       </c>
       <c r="AM143" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN143" t="n">
         <v>1000</v>
@@ -19837,22 +19837,22 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H144" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="I144" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J144" t="n">
         <v>3.35</v>
       </c>
       <c r="K144" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L144" t="n">
         <v>1.01</v>
@@ -19885,10 +19885,10 @@
         <v>1.01</v>
       </c>
       <c r="V144" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W144" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X144" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO127"/>
+  <dimension ref="A1:AO126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G2" t="n">
         <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q2" t="n">
         <v>1.54</v>
@@ -706,16 +706,16 @@
         <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
         <v>2.24</v>
@@ -727,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
         <v>100</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>1.82</v>
@@ -811,13 +811,13 @@
         <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -838,10 +838,10 @@
         <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.2</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
         <v>1.89</v>
@@ -946,7 +946,7 @@
         <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -970,13 +970,13 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
@@ -1081,16 +1081,16 @@
         <v>2.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1102,10 +1102,10 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
@@ -1120,7 +1120,7 @@
         <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W5" t="n">
         <v>1.29</v>
@@ -1144,7 +1144,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
         <v>90</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.14</v>
@@ -1354,10 +1354,10 @@
         <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1378,7 +1378,7 @@
         <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>1.98</v>
@@ -1393,7 +1393,7 @@
         <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
@@ -1489,7 +1489,7 @@
         <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.4</v>
@@ -1519,7 +1519,7 @@
         <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
         <v>2.32</v>
@@ -1528,7 +1528,7 @@
         <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
         <v>2.66</v>
@@ -1633,10 +1633,10 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1654,19 +1654,19 @@
         <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1690,7 +1690,7 @@
         <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1756,13 +1756,13 @@
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1786,7 +1786,7 @@
         <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
         <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,16 +2020,16 @@
         <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="H12" t="n">
         <v>1.83</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
         <v>6.4</v>
@@ -2050,7 +2050,7 @@
         <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G13" t="n">
         <v>1.79</v>
@@ -2161,16 +2161,16 @@
         <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2194,7 +2194,7 @@
         <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
         <v>1.76</v>
@@ -2215,7 +2215,7 @@
         <v>65</v>
       </c>
       <c r="AA13" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB13" t="n">
         <v>8</v>
@@ -2290,19 +2290,19 @@
         <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I14" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2311,34 +2311,34 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2347,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>980</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
         <v>16</v>
@@ -2386,13 +2386,13 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,13 +2470,13 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
@@ -2491,7 +2491,7 @@
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2509,7 +2509,7 @@
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,7 +2518,7 @@
         <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2584,7 +2584,7 @@
         <v>2.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.02</v>
@@ -2593,10 +2593,10 @@
         <v>1.74</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,19 +2695,19 @@
         <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
         <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,16 +2716,16 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.06</v>
+        <v>1.79</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2863,10 +2863,10 @@
         <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H19" t="n">
         <v>2.94</v>
@@ -2998,10 +2998,10 @@
         <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
         <v>1.56</v>
@@ -3013,61 +3013,61 @@
         <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X19" t="n">
         <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>2.98</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
         <v>980</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3241,10 +3241,10 @@
         <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.75</v>
@@ -3265,25 +3265,25 @@
         <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>17</v>
@@ -3391,19 +3391,19 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
         <v>1.7</v>
@@ -3658,7 +3658,7 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
@@ -3673,16 +3673,16 @@
         <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="V24" t="n">
         <v>2.62</v>
@@ -3958,7 +3958,7 @@
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X26" t="n">
         <v>980</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="J27" t="n">
         <v>3.9</v>
@@ -4081,7 +4081,7 @@
         <v>1.54</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
         <v>1.55</v>
@@ -4090,10 +4090,10 @@
         <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
@@ -4102,7 +4102,7 @@
         <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
@@ -4144,7 +4144,7 @@
         <v>65</v>
       </c>
       <c r="AN27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO27" t="n">
         <v>15.5</v>
@@ -4219,10 +4219,10 @@
         <v>2.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V28" t="n">
         <v>1.13</v>
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
         <v>1.98</v>
@@ -4351,7 +4351,7 @@
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4618,7 +4618,7 @@
         <v>1.56</v>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
         <v>2.28</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="G33" t="n">
         <v>2.24</v>
@@ -4861,7 +4861,7 @@
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
         <v>3.35</v>
@@ -4900,7 +4900,7 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
         <v>1.8</v>
@@ -4999,7 +4999,7 @@
         <v>3.65</v>
       </c>
       <c r="J34" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>5.9</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>2.06</v>
       </c>
       <c r="I35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5146,13 +5146,13 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O35" t="n">
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q35" t="n">
         <v>1.57</v>
@@ -5161,7 +5161,7 @@
         <v>1.55</v>
       </c>
       <c r="S35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5173,7 +5173,7 @@
         <v>1.87</v>
       </c>
       <c r="W35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
         <v>3.8</v>
@@ -5293,76 +5293,76 @@
         <v>1.67</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S36" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
         <v>1.94</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="n">
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
         <v>980</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>3.25</v>
@@ -5401,13 +5401,13 @@
         <v>2.28</v>
       </c>
       <c r="I37" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J37" t="n">
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.32</v>
@@ -5416,10 +5416,10 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>2.26</v>
+        <v>4.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
         <v>2.26</v>
@@ -5428,76 +5428,76 @@
         <v>1.68</v>
       </c>
       <c r="R37" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S37" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="T37" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="U37" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="V37" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE37" t="n">
         <v>24</v>
       </c>
-      <c r="AA37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
       <c r="AF37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI37" t="n">
         <v>34</v>
       </c>
-      <c r="AG37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -5554,7 +5554,7 @@
         <v>1.65</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P38" t="n">
         <v>1.65</v>
@@ -5671,7 +5671,7 @@
         <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J39" t="n">
         <v>2.98</v>
@@ -5686,22 +5686,22 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="O39" t="n">
         <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S39" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,28 +5797,28 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="I40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
         <v>2.16</v>
@@ -5830,28 +5830,28 @@
         <v>2.16</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R40" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S40" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X40" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
         <v>13.5</v>
@@ -5863,10 +5863,10 @@
         <v>22</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD40" t="n">
         <v>15</v>
@@ -5875,10 +5875,10 @@
         <v>24</v>
       </c>
       <c r="AF40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH40" t="n">
         <v>30</v>
@@ -5890,7 +5890,7 @@
         <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL40" t="n">
         <v>100</v>
@@ -5935,16 +5935,16 @@
         <v>3.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I41" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
         <v>4.4</v>
@@ -5956,7 +5956,7 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O41" t="n">
         <v>1.18</v>
@@ -5965,7 +5965,7 @@
         <v>2.42</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
         <v>1.51</v>
@@ -5983,7 +5983,7 @@
         <v>1.73</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G42" t="n">
         <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.13</v>
@@ -6100,13 +6100,13 @@
         <v>3.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T42" t="n">
         <v>1.37</v>
@@ -6115,13 +6115,13 @@
         <v>2.82</v>
       </c>
       <c r="V42" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
         <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y42" t="n">
         <v>980</v>
@@ -6130,16 +6130,16 @@
         <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB42" t="n">
         <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
@@ -6157,7 +6157,7 @@
         <v>980</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK42" t="n">
         <v>980</v>
@@ -6166,13 +6166,13 @@
         <v>980</v>
       </c>
       <c r="AM42" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G43" t="n">
         <v>1.57</v>
       </c>
       <c r="H43" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.14</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W43" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6340,16 +6340,16 @@
         <v>2.22</v>
       </c>
       <c r="G44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
         <v>4</v>
@@ -6361,10 +6361,10 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
         <v>2.6</v>
@@ -6373,76 +6373,76 @@
         <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H45" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="I45" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J45" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.34</v>
@@ -6502,10 +6502,10 @@
         <v>1.26</v>
       </c>
       <c r="P45" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R45" t="n">
         <v>1.42</v>
@@ -6517,13 +6517,13 @@
         <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="W45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="X45" t="n">
         <v>980</v>
@@ -6550,7 +6550,7 @@
         <v>980</v>
       </c>
       <c r="AF45" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AG45" t="n">
         <v>55</v>
@@ -6568,7 +6568,7 @@
         <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
@@ -6610,7 +6610,7 @@
         <v>1.69</v>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H46" t="n">
         <v>5.2</v>
@@ -6766,13 +6766,13 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="O47" t="n">
         <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q47" t="n">
         <v>2.3</v>
@@ -6880,7 +6880,7 @@
         <v>1.26</v>
       </c>
       <c r="G48" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>8.199999999999999</v>
@@ -7042,7 +7042,7 @@
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q49" t="n">
         <v>2.14</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="G50" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I50" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="J50" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,7 +7171,7 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O50" t="n">
         <v>1.31</v>
@@ -7186,7 +7186,7 @@
         <v>1.28</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W50" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,31 +7282,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G51" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H51" t="n">
         <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.23</v>
@@ -7315,76 +7315,76 @@
         <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S51" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
         <v>1.32</v>
       </c>
       <c r="W51" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA51" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF51" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>21</v>
       </c>
       <c r="AG51" t="n">
         <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ51" t="n">
         <v>36</v>
       </c>
       <c r="AK51" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AL51" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
         <v>50</v>
@@ -7423,13 +7423,13 @@
         <v>2.16</v>
       </c>
       <c r="H52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I52" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K52" t="n">
         <v>3.75</v>
@@ -7441,16 +7441,16 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.79</v>
+        <v>2.6</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R52" t="n">
         <v>1.27</v>
@@ -7465,7 +7465,7 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W52" t="n">
         <v>1.86</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G53" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>2.78</v>
       </c>
       <c r="K53" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,13 +7576,13 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q53" t="n">
         <v>2.04</v>
@@ -7591,7 +7591,7 @@
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="W53" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7711,13 +7711,13 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P54" t="n">
         <v>1.25</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.24</v>
       </c>
       <c r="Q54" t="n">
         <v>1.02</v>
@@ -7726,7 +7726,7 @@
         <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7822,28 +7822,28 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G55" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.5</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3.6</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
         <v>4.1</v>
@@ -7870,10 +7870,10 @@
         <v>2.3</v>
       </c>
       <c r="V55" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W55" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="X55" t="n">
         <v>14.5</v>
@@ -7882,13 +7882,13 @@
         <v>14</v>
       </c>
       <c r="Z55" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA55" t="n">
         <v>60</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC55" t="n">
         <v>7.8</v>
@@ -7897,10 +7897,10 @@
         <v>14</v>
       </c>
       <c r="AE55" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF55" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG55" t="n">
         <v>11</v>
@@ -7909,22 +7909,22 @@
         <v>16.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL55" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM55" t="n">
         <v>70</v>
       </c>
       <c r="AN55" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G56" t="n">
         <v>2.34</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J56" t="n">
         <v>3.6</v>
@@ -7981,7 +7981,7 @@
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O56" t="n">
         <v>1.26</v>
@@ -7993,34 +7993,34 @@
         <v>1.78</v>
       </c>
       <c r="R56" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T56" t="n">
         <v>1.64</v>
       </c>
       <c r="U56" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W56" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X56" t="n">
         <v>17</v>
       </c>
       <c r="Y56" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z56" t="n">
         <v>24</v>
       </c>
       <c r="AA56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB56" t="n">
         <v>12.5</v>
@@ -8029,19 +8029,19 @@
         <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE56" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG56" t="n">
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI56" t="n">
         <v>40</v>
@@ -8050,7 +8050,7 @@
         <v>32</v>
       </c>
       <c r="AK56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL56" t="n">
         <v>32</v>
@@ -8059,7 +8059,7 @@
         <v>70</v>
       </c>
       <c r="AN56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO56" t="n">
         <v>27</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G57" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H57" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J57" t="n">
         <v>3.45</v>
@@ -8110,7 +8110,7 @@
         <v>3.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M57" t="n">
         <v>1.09</v>
@@ -8122,7 +8122,7 @@
         <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q57" t="n">
         <v>2.2</v>
@@ -8140,10 +8140,10 @@
         <v>2.06</v>
       </c>
       <c r="V57" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W57" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X57" t="n">
         <v>12</v>
@@ -8164,13 +8164,13 @@
         <v>7.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE57" t="n">
         <v>42</v>
       </c>
       <c r="AF57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG57" t="n">
         <v>11.5</v>
@@ -8179,25 +8179,25 @@
         <v>18.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ57" t="n">
         <v>32</v>
       </c>
       <c r="AK57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL57" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM57" t="n">
         <v>110</v>
       </c>
       <c r="AN57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO57" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G58" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.05</v>
-      </c>
       <c r="H58" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J58" t="n">
         <v>3.55</v>
@@ -8254,31 +8254,31 @@
         <v>4.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R58" t="n">
         <v>1.4</v>
       </c>
       <c r="S58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T58" t="n">
         <v>1.72</v>
       </c>
       <c r="U58" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V58" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W58" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X58" t="n">
         <v>15.5</v>
@@ -8290,7 +8290,7 @@
         <v>16.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -8302,10 +8302,10 @@
         <v>11.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF58" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG58" t="n">
         <v>12.5</v>
@@ -8314,10 +8314,10 @@
         <v>16.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK58" t="n">
         <v>32</v>
@@ -8326,13 +8326,13 @@
         <v>42</v>
       </c>
       <c r="AM58" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN58" t="n">
         <v>27</v>
       </c>
       <c r="AO58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G59" t="n">
         <v>3.2</v>
@@ -8371,7 +8371,7 @@
         <v>2.54</v>
       </c>
       <c r="I59" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J59" t="n">
         <v>3.35</v>
@@ -8404,28 +8404,28 @@
         <v>4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="n">
         <v>2.08</v>
       </c>
       <c r="V59" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W59" t="n">
         <v>1.45</v>
       </c>
       <c r="X59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA59" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB59" t="n">
         <v>11.5</v>
@@ -8434,40 +8434,40 @@
         <v>7.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG59" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN59" t="n">
         <v>42</v>
       </c>
-      <c r="AL59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>44</v>
-      </c>
       <c r="AO59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
@@ -8503,10 +8503,10 @@
         <v>3.3</v>
       </c>
       <c r="H60" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.72</v>
       </c>
       <c r="J60" t="n">
         <v>3.1</v>
@@ -8515,7 +8515,7 @@
         <v>3.15</v>
       </c>
       <c r="L60" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M60" t="n">
         <v>1.12</v>
@@ -8548,7 +8548,7 @@
         <v>1.58</v>
       </c>
       <c r="W60" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X60" t="n">
         <v>8.800000000000001</v>
@@ -8566,7 +8566,7 @@
         <v>9.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD60" t="n">
         <v>12.5</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
@@ -8665,25 +8665,25 @@
         <v>1.59</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R61" t="n">
         <v>1.21</v>
       </c>
       <c r="S61" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T61" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V61" t="n">
         <v>1.49</v>
       </c>
       <c r="W61" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X61" t="n">
         <v>8.6</v>
@@ -8728,7 +8728,7 @@
         <v>40</v>
       </c>
       <c r="AL61" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM61" t="n">
         <v>170</v>
@@ -8770,7 +8770,7 @@
         <v>1.81</v>
       </c>
       <c r="G62" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H62" t="n">
         <v>4.5</v>
@@ -8779,7 +8779,7 @@
         <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K62" t="n">
         <v>4.1</v>
@@ -8800,13 +8800,13 @@
         <v>1.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R62" t="n">
         <v>1.26</v>
       </c>
       <c r="S62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8818,7 +8818,7 @@
         <v>1.2</v>
       </c>
       <c r="W62" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,25 +8902,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H63" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J63" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L63" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M63" t="n">
         <v>1.08</v>
@@ -8929,40 +8929,40 @@
         <v>3.55</v>
       </c>
       <c r="O63" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q63" t="n">
         <v>2.12</v>
       </c>
       <c r="R63" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S63" t="n">
         <v>3.9</v>
       </c>
       <c r="T63" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U63" t="n">
         <v>1.96</v>
       </c>
-      <c r="U63" t="n">
-        <v>1.97</v>
-      </c>
       <c r="V63" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W63" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X63" t="n">
         <v>12.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z63" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA63" t="n">
         <v>130</v>
@@ -8974,10 +8974,10 @@
         <v>8</v>
       </c>
       <c r="AD63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE63" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8989,7 +8989,7 @@
         <v>22</v>
       </c>
       <c r="AI63" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ63" t="n">
         <v>21</v>
@@ -9001,13 +9001,13 @@
         <v>42</v>
       </c>
       <c r="AM63" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO63" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
@@ -9037,52 +9037,52 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G64" t="n">
         <v>1.29</v>
       </c>
       <c r="H64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K64" t="n">
         <v>8</v>
       </c>
-      <c r="I64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N64" t="n">
         <v>4.8</v>
       </c>
-      <c r="K64" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
         <v>2.32</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R64" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="S64" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U64" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V64" t="n">
         <v>1.04</v>
@@ -9091,10 +9091,10 @@
         <v>4.3</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
@@ -9103,43 +9103,43 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="G65" t="n">
         <v>1.51</v>
@@ -9181,25 +9181,25 @@
         <v>7.2</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P65" t="n">
         <v>1.96</v>
@@ -9208,76 +9208,76 @@
         <v>1.71</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G66" t="n">
         <v>5.2</v>
@@ -9316,19 +9316,19 @@
         <v>1.69</v>
       </c>
       <c r="I66" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J66" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K66" t="n">
         <v>4.8</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
         <v>5.1</v>
@@ -9337,22 +9337,22 @@
         <v>1.2</v>
       </c>
       <c r="P66" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q66" t="n">
         <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="S66" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="U66" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="V66" t="n">
         <v>2.32</v>
@@ -9382,10 +9382,10 @@
         <v>11</v>
       </c>
       <c r="AE66" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF66" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG66" t="n">
         <v>21</v>
@@ -9448,7 +9448,7 @@
         <v>1000</v>
       </c>
       <c r="H67" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="I67" t="n">
         <v>1.91</v>
@@ -9460,94 +9460,94 @@
         <v>1000</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P67" t="n">
         <v>2.46</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9577,112 +9577,112 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H68" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="J68" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K68" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P68" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69">
@@ -9715,7 +9715,7 @@
         <v>1.41</v>
       </c>
       <c r="G69" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H69" t="n">
         <v>9.199999999999999</v>
@@ -9724,100 +9724,100 @@
         <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K69" t="n">
         <v>5.3</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P69" t="n">
         <v>1.92</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>2.06</v>
@@ -9859,100 +9859,100 @@
         <v>2.72</v>
       </c>
       <c r="J70" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="K70" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -9985,109 +9985,109 @@
         <v>5.2</v>
       </c>
       <c r="G71" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="I71" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J71" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K71" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P71" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72">
@@ -10117,25 +10117,25 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H72" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
       </c>
       <c r="K72" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
@@ -10150,13 +10150,13 @@
         <v>2.94</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R72" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S72" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -10267,19 +10267,19 @@
         <v>4.2</v>
       </c>
       <c r="K73" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P73" t="n">
         <v>3.05</v>
@@ -10288,76 +10288,76 @@
         <v>1.42</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -10411,13 +10411,13 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O74" t="n">
         <v>1.21</v>
       </c>
       <c r="P74" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q74" t="n">
         <v>1.56</v>
@@ -10522,25 +10522,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G75" t="n">
         <v>3.4</v>
       </c>
       <c r="H75" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I75" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J75" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K75" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M75" t="n">
         <v>1.05</v>
@@ -10561,22 +10561,22 @@
         <v>1.48</v>
       </c>
       <c r="S75" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T75" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U75" t="n">
         <v>2.36</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X75" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -10591,43 +10591,43 @@
         <v>16</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI75" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL75" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM75" t="n">
         <v>75</v>
       </c>
       <c r="AN75" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -10660,13 +10660,13 @@
         <v>5.7</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H76" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I76" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J76" t="n">
         <v>3.65</v>
@@ -10675,94 +10675,94 @@
         <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P76" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q76" t="n">
         <v>2.18</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL76" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN76" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77">
@@ -10792,25 +10792,25 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G77" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J77" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K77" t="n">
         <v>3.4</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M77" t="n">
         <v>1.1</v>
@@ -10825,7 +10825,7 @@
         <v>1.68</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R77" t="n">
         <v>1.25</v>
@@ -10834,16 +10834,16 @@
         <v>4.6</v>
       </c>
       <c r="T77" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U77" t="n">
         <v>1.94</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X77" t="n">
         <v>10.5</v>
@@ -10870,7 +10870,7 @@
         <v>44</v>
       </c>
       <c r="AF77" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AG77" t="n">
         <v>12.5</v>
@@ -10930,22 +10930,22 @@
         <v>2.76</v>
       </c>
       <c r="G78" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I78" t="n">
         <v>2.72</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K78" t="n">
         <v>3.75</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
@@ -10960,10 +10960,10 @@
         <v>2.2</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R78" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S78" t="n">
         <v>2.92</v>
@@ -10972,22 +10972,22 @@
         <v>1.64</v>
       </c>
       <c r="U78" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X78" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA78" t="n">
         <v>38</v>
@@ -10996,43 +10996,43 @@
         <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG78" t="n">
         <v>13</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH78" t="n">
         <v>15.5</v>
       </c>
       <c r="AI78" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL78" t="n">
         <v>36</v>
       </c>
-      <c r="AJ78" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>38</v>
-      </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -11062,112 +11062,112 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P79" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
@@ -11197,112 +11197,112 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81">
@@ -11332,112 +11332,112 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P81" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11467,112 +11467,112 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P82" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
@@ -11605,10 +11605,10 @@
         <v>3.75</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I83" t="n">
         <v>2.1</v>
@@ -11620,94 +11620,94 @@
         <v>4.8</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P83" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA83" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI83" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM83" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN83" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -11755,10 +11755,10 @@
         <v>4.8</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
         <v>5.7</v>
@@ -11785,13 +11785,13 @@
         <v>2.28</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X84" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y84" t="n">
         <v>29</v>
@@ -11800,7 +11800,7 @@
         <v>60</v>
       </c>
       <c r="AA84" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB84" t="n">
         <v>12</v>
@@ -11809,40 +11809,40 @@
         <v>11</v>
       </c>
       <c r="AD84" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE84" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF84" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG84" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH84" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ84" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK84" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL84" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN84" t="n">
         <v>6.2</v>
       </c>
       <c r="AO84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G85" t="n">
         <v>1.96</v>
@@ -11890,7 +11890,7 @@
         <v>4.2</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -11911,25 +11911,25 @@
         <v>1.75</v>
       </c>
       <c r="S85" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T85" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U85" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X85" t="n">
         <v>27</v>
       </c>
       <c r="Y85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z85" t="n">
         <v>36</v>
@@ -11944,31 +11944,31 @@
         <v>10.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE85" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG85" t="n">
         <v>10.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI85" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL85" t="n">
         <v>23</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>24</v>
       </c>
       <c r="AM85" t="n">
         <v>46</v>
@@ -11977,7 +11977,7 @@
         <v>7.8</v>
       </c>
       <c r="AO85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -12007,112 +12007,112 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12148,106 +12148,106 @@
         <v>1000</v>
       </c>
       <c r="H87" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="I87" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="J87" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K87" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P87" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -12295,94 +12295,94 @@
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P88" t="n">
         <v>1.72</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
@@ -12415,7 +12415,7 @@
         <v>1.61</v>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H89" t="n">
         <v>5.4</v>
@@ -12430,16 +12430,16 @@
         <v>4.9</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N89" t="n">
         <v>2.34</v>
       </c>
       <c r="O89" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P89" t="n">
         <v>2.34</v>
@@ -12466,7 +12466,7 @@
         <v>2.44</v>
       </c>
       <c r="X89" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
         <v>34</v>
@@ -12514,10 +12514,10 @@
         <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -12547,112 +12547,112 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G90" t="n">
         <v>2.68</v>
       </c>
       <c r="H90" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P90" t="n">
         <v>1.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G91" t="n">
         <v>1.58</v>
       </c>
-      <c r="G91" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H91" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I91" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J91" t="n">
         <v>4.2</v>
@@ -12700,7 +12700,7 @@
         <v>4.3</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
@@ -12712,7 +12712,7 @@
         <v>1.37</v>
       </c>
       <c r="P91" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q91" t="n">
         <v>2.08</v>
@@ -12721,73 +12721,73 @@
         <v>1.33</v>
       </c>
       <c r="S91" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T91" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U91" t="n">
         <v>1.81</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X91" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z91" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA91" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AB91" t="n">
         <v>7.2</v>
       </c>
       <c r="AC91" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG91" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD91" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>10</v>
-      </c>
       <c r="AH91" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI91" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ91" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL91" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM91" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN91" t="n">
         <v>10.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
@@ -12817,112 +12817,112 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.72</v>
+        <v>1.56</v>
       </c>
       <c r="G92" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="J92" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P92" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,118 +12952,118 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G93" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H93" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I93" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J93" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="K93" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,127 +13078,127 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Vinotinto Ecuador</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="G94" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J94" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="K94" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P94" t="n">
-        <v>1.59</v>
+        <v>2.04</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13213,121 +13213,121 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Vinotinto Ecuador</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="H95" t="n">
-        <v>2.72</v>
+        <v>1.63</v>
       </c>
       <c r="I95" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="J95" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
@@ -13357,34 +13357,34 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="H96" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I96" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J96" t="n">
         <v>3.25</v>
       </c>
       <c r="K96" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P96" t="n">
         <v>2.2</v>
@@ -13393,76 +13393,76 @@
         <v>1.67</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
@@ -13492,25 +13492,25 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G97" t="n">
         <v>1.91</v>
       </c>
       <c r="H97" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I97" t="n">
         <v>4.3</v>
       </c>
       <c r="J97" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K97" t="n">
         <v>4.3</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M97" t="n">
         <v>1.04</v>
@@ -13534,19 +13534,19 @@
         <v>2.5</v>
       </c>
       <c r="T97" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U97" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y97" t="n">
         <v>22</v>
@@ -13561,34 +13561,34 @@
         <v>13.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD97" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF97" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH97" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>16</v>
-      </c>
       <c r="AI97" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ97" t="n">
         <v>22</v>
       </c>
       <c r="AK97" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL97" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM97" t="n">
         <v>65</v>
@@ -13597,7 +13597,7 @@
         <v>8.6</v>
       </c>
       <c r="AO97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -13645,94 +13645,94 @@
         <v>5.8</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P98" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
@@ -13762,13 +13762,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G99" t="n">
         <v>3.65</v>
       </c>
       <c r="H99" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I99" t="n">
         <v>2.62</v>
@@ -13780,7 +13780,7 @@
         <v>3.6</v>
       </c>
       <c r="L99" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M99" t="n">
         <v>1.09</v>
@@ -13792,7 +13792,7 @@
         <v>1.41</v>
       </c>
       <c r="P99" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q99" t="n">
         <v>2.2</v>
@@ -13897,25 +13897,25 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="G100" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="H100" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I100" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="J100" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K100" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L100" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M100" t="n">
         <v>1.06</v>
@@ -13924,16 +13924,16 @@
         <v>1.04</v>
       </c>
       <c r="O100" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P100" t="n">
         <v>1.25</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R100" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S100" t="n">
         <v>4</v>
@@ -13945,10 +13945,10 @@
         <v>1.83</v>
       </c>
       <c r="V100" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W100" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G101" t="n">
         <v>1.82</v>
@@ -14044,28 +14044,28 @@
         <v>7</v>
       </c>
       <c r="J101" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K101" t="n">
         <v>3.8</v>
       </c>
       <c r="L101" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="n">
         <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O101" t="n">
         <v>1.47</v>
       </c>
       <c r="P101" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R101" t="n">
         <v>1.22</v>
@@ -14185,16 +14185,16 @@
         <v>4.5</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P102" t="n">
         <v>1.87</v>
@@ -14203,76 +14203,76 @@
         <v>1.76</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
         <v>2.14</v>
@@ -14314,22 +14314,22 @@
         <v>3.85</v>
       </c>
       <c r="J103" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K103" t="n">
         <v>4.4</v>
       </c>
       <c r="L103" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M103" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N103" t="n">
         <v>2.48</v>
       </c>
       <c r="O103" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P103" t="n">
         <v>2.48</v>
@@ -14344,16 +14344,16 @@
         <v>2.2</v>
       </c>
       <c r="T103" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U103" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
         <v>1.35</v>
       </c>
       <c r="W103" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X103" t="n">
         <v>34</v>
@@ -14386,7 +14386,7 @@
         <v>16</v>
       </c>
       <c r="AH103" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI103" t="n">
         <v>55</v>
@@ -14407,7 +14407,7 @@
         <v>14.5</v>
       </c>
       <c r="AO103" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -14446,7 +14446,7 @@
         <v>1.53</v>
       </c>
       <c r="I104" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="J104" t="n">
         <v>5</v>
@@ -14455,94 +14455,94 @@
         <v>5.4</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P104" t="n">
         <v>2.78</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14572,31 +14572,31 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G105" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I105" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J105" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K105" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L105" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M105" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O105" t="n">
         <v>1.36</v>
@@ -14608,61 +14608,61 @@
         <v>2.02</v>
       </c>
       <c r="R105" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S105" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T105" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U105" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V105" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W105" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X105" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA105" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB105" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC105" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD105" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE105" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF105" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG105" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH105" t="n">
         <v>22</v>
       </c>
       <c r="AI105" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ105" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK105" t="n">
         <v>36</v>
@@ -14677,13 +14677,13 @@
         <v>32</v>
       </c>
       <c r="AO105" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,31 +14698,31 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,31 +14833,31 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14872,10 +14872,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14968,12 +14968,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -15118,7 +15118,7 @@
         <v>1.4</v>
       </c>
       <c r="H109" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I109" t="n">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>5.8</v>
       </c>
       <c r="K109" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15139,19 +15139,19 @@
         <v>4.8</v>
       </c>
       <c r="O109" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P109" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q109" t="n">
         <v>1.73</v>
       </c>
       <c r="R109" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S109" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T109" t="n">
         <v>2.08</v>
@@ -15172,10 +15172,10 @@
         <v>29</v>
       </c>
       <c r="Z109" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA109" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AB109" t="n">
         <v>8.800000000000001</v>
@@ -15184,10 +15184,10 @@
         <v>13</v>
       </c>
       <c r="AD109" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE109" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF109" t="n">
         <v>8.199999999999999</v>
@@ -15199,7 +15199,7 @@
         <v>32</v>
       </c>
       <c r="AI109" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ109" t="n">
         <v>12</v>
@@ -15247,16 +15247,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H110" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I110" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -15271,28 +15271,28 @@
         <v>1.05</v>
       </c>
       <c r="N110" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O110" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P110" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R110" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="S110" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T110" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U110" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
@@ -15304,16 +15304,16 @@
         <v>25</v>
       </c>
       <c r="Y110" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA110" t="n">
         <v>24</v>
       </c>
       <c r="AB110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC110" t="n">
         <v>9.4</v>
@@ -15322,7 +15322,7 @@
         <v>10.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF110" t="n">
         <v>40</v>
@@ -15331,7 +15331,7 @@
         <v>20</v>
       </c>
       <c r="AH110" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI110" t="n">
         <v>32</v>
@@ -15349,7 +15349,7 @@
         <v>85</v>
       </c>
       <c r="AN110" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO110" t="n">
         <v>9.4</v>
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q112" t="n">
         <v>1.48</v>
@@ -16057,61 +16057,61 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G116" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H116" t="n">
         <v>12</v>
       </c>
       <c r="I116" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J116" t="n">
         <v>5.4</v>
       </c>
       <c r="K116" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L116" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M116" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N116" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P116" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R116" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S116" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T116" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U116" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V116" t="n">
         <v>1.07</v>
       </c>
       <c r="W116" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="X116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y116" t="n">
         <v>1000</v>
@@ -16123,19 +16123,19 @@
         <v>1000</v>
       </c>
       <c r="AB116" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC116" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD116" t="n">
         <v>1000</v>
       </c>
       <c r="AE116" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AF116" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG116" t="n">
         <v>11</v>
@@ -16144,7 +16144,7 @@
         <v>1000</v>
       </c>
       <c r="AI116" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ116" t="n">
         <v>10</v>
@@ -16156,10 +16156,10 @@
         <v>1000</v>
       </c>
       <c r="AM116" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN116" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO116" t="n">
         <v>1000</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G118" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H118" t="n">
         <v>5.2</v>
       </c>
       <c r="I118" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J118" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K118" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -16357,10 +16357,10 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -16468,16 +16468,16 @@
         <v>5</v>
       </c>
       <c r="H119" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I119" t="n">
         <v>2.88</v>
       </c>
       <c r="J119" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="K119" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -16843,7 +16843,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -16853,132 +16853,132 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="G122" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H122" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="I122" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J122" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K122" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P122" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16988,132 +16988,132 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G123" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H123" t="n">
-        <v>1.04</v>
+        <v>16</v>
       </c>
       <c r="I123" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="J123" t="n">
-        <v>1.02</v>
+        <v>5.2</v>
       </c>
       <c r="K123" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.11</v>
+        <v>2.02</v>
       </c>
       <c r="R123" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17123,126 +17123,126 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V124" t="n">
         <v>1.27</v>
       </c>
-      <c r="G124" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H124" t="n">
-        <v>16</v>
-      </c>
-      <c r="I124" t="n">
+      <c r="W124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X124" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH124" t="n">
         <v>24</v>
       </c>
-      <c r="J124" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K124" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P124" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T124" t="n">
-        <v>0</v>
-      </c>
-      <c r="U124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
       <c r="AI124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM124" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN124" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO124" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
@@ -17263,28 +17263,28 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.94</v>
+        <v>4.1</v>
       </c>
       <c r="G125" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I125" t="n">
         <v>2.12</v>
       </c>
-      <c r="H125" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J125" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K125" t="n">
         <v>3.8</v>
@@ -17299,37 +17299,37 @@
         <v>3.2</v>
       </c>
       <c r="O125" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P125" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R125" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S125" t="n">
         <v>3.85</v>
       </c>
       <c r="T125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V125" t="n">
         <v>1.89</v>
       </c>
-      <c r="U125" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V125" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W125" t="n">
-        <v>1.89</v>
+        <v>1.26</v>
       </c>
       <c r="X125" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y125" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z125" t="n">
         <v>1000</v>
@@ -17338,22 +17338,22 @@
         <v>1000</v>
       </c>
       <c r="AB125" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD125" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE125" t="n">
         <v>1000</v>
       </c>
       <c r="AF125" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG125" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH125" t="n">
         <v>1000</v>
@@ -17371,10 +17371,10 @@
         <v>1000</v>
       </c>
       <c r="AM125" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN125" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO125" t="n">
         <v>1000</v>
@@ -17383,7 +17383,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -17398,255 +17398,120 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>1.25</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="R126" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC126" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD126" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM126" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN126" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO126" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2025-11-09</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Paysandu</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Coritiba</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO127" t="n">
         <v>0</v>
       </c>
     </row>
